--- a/data-raw/ModelData/AgeCohorts.xlsx
+++ b/data-raw/ModelData/AgeCohorts.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10308"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10413"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jim/Dropbox/seirR/data-raw/ModelData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FAB63D1-7D7F-434D-9FBA-ECC5B035E038}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84EC5CFA-917F-D848-8330-C7BC570F2D8A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="960" windowWidth="27640" windowHeight="16160" xr2:uid="{562D4377-0BC5-B447-A508-0D873493A57F}"/>
+    <workbookView xWindow="780" yWindow="860" windowWidth="27640" windowHeight="16160" xr2:uid="{562D4377-0BC5-B447-A508-0D873493A57F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -456,10 +456,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72C698C0-B445-6540-A3DD-7AD8FA32DBF5}">
-  <dimension ref="A1:B20"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -467,7 +467,7 @@
     <col min="1" max="1" width="11.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>18</v>
       </c>
@@ -475,7 +475,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -483,7 +483,7 @@
         <v>83900</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -491,7 +491,7 @@
         <v>90053</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -499,7 +499,7 @@
         <v>137861</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -507,15 +507,19 @@
         <v>189980</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B6" s="2">
         <v>225555</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C6" s="3">
+        <f>SUM(B2:B6)</f>
+        <v>727349</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
@@ -523,7 +527,7 @@
         <v>258877</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
@@ -531,7 +535,7 @@
         <v>290949</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
@@ -539,7 +543,7 @@
         <v>320553</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
@@ -547,7 +551,7 @@
         <v>352202</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
@@ -555,7 +559,7 @@
         <v>383131</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
@@ -563,7 +567,7 @@
         <v>368425</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
@@ -571,7 +575,7 @@
         <v>317143</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
@@ -579,15 +583,19 @@
         <v>312107</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B15" s="2">
         <v>300225</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C15" s="3">
+        <f>SUM(B7:B15)</f>
+        <v>2903612</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>14</v>
       </c>
@@ -595,7 +603,7 @@
         <v>316914</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>15</v>
       </c>
@@ -603,15 +611,19 @@
         <v>352297</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B18" s="2">
         <v>347919</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C18" s="3">
+        <f>SUM(B16:B18)</f>
+        <v>1017130</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>17</v>
       </c>
@@ -619,7 +631,7 @@
         <v>351883</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B20" s="3"/>
     </row>
   </sheetData>
